--- a/2.0.0/web/uploads/import_template/factory_goods.xlsx
+++ b/2.0.0/web/uploads/import_template/factory_goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Code/puzhen/2.0.0/web/uploads/import_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D8D97-2D00-C14B-9B4A-7B320BF30F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575A7A6-4ECB-974B-A381-AEB63D930639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16060" xr2:uid="{284B7C64-E364-B447-B22F-34EF8E49C7B8}"/>
   </bookViews>
@@ -60,15 +60,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品重量(Kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>茶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品重量(g)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -447,7 +447,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -462,12 +462,12 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/2.0.0/web/uploads/import_template/factory_goods.xlsx
+++ b/2.0.0/web/uploads/import_template/factory_goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Code/puzhen/2.0.0/web/uploads/import_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575A7A6-4ECB-974B-A381-AEB63D930639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3B029-C1A2-2945-966B-67C7BDC11BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16060" xr2:uid="{284B7C64-E364-B447-B22F-34EF8E49C7B8}"/>
   </bookViews>
@@ -64,11 +64,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>茶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品重量(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶泡法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -462,12 +462,12 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
